--- a/dataproject/Money-bank.xlsx
+++ b/dataproject/Money-bank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeterVilmar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeterVilmar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D7952D-D527-504C-96E2-5E558B688B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF85D8A-C034-0C45-98B3-54A7B672A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1840" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMUE12" sheetId="2" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
